--- a/etc/performance/Benchmarks.xlsx
+++ b/etc/performance/Benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24735" windowHeight="12360" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24735" windowHeight="12360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BeanUtil" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="JDateTime" sheetId="3" r:id="rId3"/>
     <sheet name="Sorting" sheetId="4" r:id="rId4"/>
     <sheet name="Mutable" sheetId="5" r:id="rId5"/>
+    <sheet name="Base64" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>test #1</t>
   </si>
@@ -51,6 +52,21 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>test #3</t>
+  </si>
+  <si>
+    <t>Harder</t>
+  </si>
+  <si>
+    <t>Commons</t>
+  </si>
+  <si>
+    <t>Jodd</t>
   </si>
 </sst>
 </file>
@@ -126,6 +142,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -222,25 +239,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="62311808"/>
-        <c:axId val="62329984"/>
+        <c:axId val="63447040"/>
+        <c:axId val="63448576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62311808"/>
+        <c:axId val="63447040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62329984"/>
+        <c:crossAx val="63448576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62329984"/>
+        <c:axId val="63448576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -263,11 +280,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62311808"/>
+        <c:crossAx val="63447040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -292,8 +310,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79650338228269379"/>
-          <c:y val="0.15320456256640852"/>
+          <c:x val="0.79650338228269368"/>
+          <c:y val="0.15320456256640858"/>
           <c:w val="0.17479472600171553"/>
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
@@ -313,7 +331,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -340,6 +358,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -424,25 +443,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="62389248"/>
-        <c:axId val="62493440"/>
+        <c:axId val="63516032"/>
+        <c:axId val="63542400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62389248"/>
+        <c:axId val="63516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62493440"/>
+        <c:crossAx val="63542400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62493440"/>
+        <c:axId val="63542400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -466,6 +485,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -473,7 +493,7 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="62389248"/>
+        <c:crossAx val="63516032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -507,8 +527,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.73570822397200364"/>
           <c:y val="0.16755043013391041"/>
-          <c:w val="0.24484733158355224"/>
-          <c:h val="0.15488984556817093"/>
+          <c:w val="0.24484733158355226"/>
+          <c:h val="0.15488984556817095"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -531,7 +551,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -660,25 +680,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="62535936"/>
-        <c:axId val="62541824"/>
+        <c:axId val="63580800"/>
+        <c:axId val="63590784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62535936"/>
+        <c:axId val="63580800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62541824"/>
+        <c:crossAx val="63590784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62541824"/>
+        <c:axId val="63590784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -706,7 +726,7 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62535936"/>
+        <c:crossAx val="63580800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -732,7 +752,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.79650338228269357"/>
-          <c:y val="0.15320456256640863"/>
+          <c:y val="0.15320456256640869"/>
           <c:w val="0.17479472600171553"/>
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
@@ -752,7 +772,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -784,7 +804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -869,25 +888,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="62420480"/>
-        <c:axId val="62422016"/>
+        <c:axId val="63657856"/>
+        <c:axId val="63659392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62420480"/>
+        <c:axId val="63657856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62422016"/>
+        <c:crossAx val="63659392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62422016"/>
+        <c:axId val="63659392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -910,12 +929,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62420480"/>
+        <c:crossAx val="63657856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -927,9 +945,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78104851207714354"/>
+          <c:x val="0.78104851207714365"/>
           <c:y val="8.3215750846157635E-2"/>
-          <c:w val="0.19829036281001658"/>
+          <c:w val="0.19829036281001661"/>
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
@@ -948,7 +966,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -985,7 +1003,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.28540755467196821"/>
-          <c:y val="2.5022341376228777E-2"/>
+          <c:y val="2.5022341376228784E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -1072,25 +1090,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="66701184"/>
-        <c:axId val="71121536"/>
+        <c:axId val="63701376"/>
+        <c:axId val="63702912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66701184"/>
+        <c:axId val="63701376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71121536"/>
+        <c:crossAx val="63702912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71121536"/>
+        <c:axId val="63702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1118,7 +1136,7 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66701184"/>
+        <c:crossAx val="63701376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1132,7 +1150,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78104851207714365"/>
           <c:y val="8.3215750846157635E-2"/>
-          <c:w val="0.19829036281001663"/>
+          <c:w val="0.19829036281001666"/>
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
@@ -1151,7 +1169,326 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="34"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sr-Latn-CS" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Base64 performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28540755467196821"/>
+          <c:y val="2.5022341376228791E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Base64!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Base64!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>test #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Base64!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Base64!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Harder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Base64!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>test #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Base64!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1550910552623304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.130906045228361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.715891670924883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Base64!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Base64!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>test #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Base64!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.087420042643924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.637532640291671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.318344404701072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Jodd</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Base64!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>test #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Base64!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7477017721695971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7349854658323896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.656617271333674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="91390336"/>
+        <c:axId val="91391872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91390336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91391872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91391872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sr-Latn-CS" sz="1100" baseline="0"/>
+                  <a:t>Time [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91390336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78104851207714365"/>
+          <c:y val="8.3215750846157635E-2"/>
+          <c:w val="0.18135199302870442"/>
+          <c:h val="0.29316952002983537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1311,6 +1648,41 @@
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1840,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1876,4 +2248,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28609</v>
+      </c>
+      <c r="C2">
+        <v>2047</v>
+      </c>
+      <c r="D2">
+        <v>3172</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>C2/B2 * 100</f>
+        <v>7.1550910552623304</v>
+      </c>
+      <c r="H2">
+        <f>D2/B2 * 100</f>
+        <v>11.087420042643924</v>
+      </c>
+      <c r="I2">
+        <f>E2/B2 * 100</f>
+        <v>1.7477017721695971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40594</v>
+      </c>
+      <c r="C3">
+        <v>7766</v>
+      </c>
+      <c r="D3">
+        <v>12437</v>
+      </c>
+      <c r="E3">
+        <v>2734</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">C3/B3 * 100</f>
+        <v>19.130906045228361</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">D3/B3 * 100</f>
+        <v>30.637532640291671</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="2">E3/B3 * 100</f>
+        <v>6.7349854658323896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>39140</v>
+      </c>
+      <c r="C4">
+        <v>8891</v>
+      </c>
+      <c r="D4">
+        <v>16172</v>
+      </c>
+      <c r="E4">
+        <v>4171</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>22.715891670924883</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>41.318344404701072</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>10.656617271333674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/etc/performance/Benchmarks.xlsx
+++ b/etc/performance/Benchmarks.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24735" windowHeight="12360" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24120" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="BeanUtil" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Mutable" sheetId="5" r:id="rId5"/>
     <sheet name="Base64" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +113,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="34"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -143,12 +157,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -163,6 +180,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>BeanUtil!$A$2:$A$3</c:f>
@@ -207,6 +225,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>BeanUtil!$A$2:$A$3</c:f>
@@ -228,40 +247,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>81.478897802581102</c:v>
+                  <c:v>35.117511207716348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.16850393700787</c:v>
+                  <c:v>36.862519752909066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="63447040"/>
-        <c:axId val="63448576"/>
+        <c:axId val="137535488"/>
+        <c:axId val="95737472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63447040"/>
+        <c:axId val="137535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63448576"/>
+        <c:crossAx val="95737472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63448576"/>
+        <c:axId val="95737472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -281,11 +312,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63447040"/>
+        <c:crossAx val="137535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -316,6 +349,7 @@
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -328,6 +362,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -339,7 +375,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -359,12 +405,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -379,6 +428,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Proxetta!$A$2</c:f>
@@ -417,6 +467,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Proxetta!$A$2</c:f>
@@ -441,31 +492,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="63516032"/>
-        <c:axId val="63542400"/>
+        <c:axId val="110436864"/>
+        <c:axId val="137904128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63516032"/>
+        <c:axId val="110436864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63542400"/>
+        <c:crossAx val="137904128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63542400"/>
+        <c:axId val="137904128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -486,14 +549,16 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="63516032"/>
+        <c:crossAx val="110436864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -531,6 +596,7 @@
           <c:h val="0.15488984556817095"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -543,6 +609,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -559,8 +627,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="34"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -584,12 +661,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -604,6 +684,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>JDateTime!$A$2:$A$3</c:f>
@@ -648,6 +729,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>JDateTime!$A$2:$A$3</c:f>
@@ -678,31 +760,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="63580800"/>
-        <c:axId val="63590784"/>
+        <c:axId val="137537024"/>
+        <c:axId val="137906432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63580800"/>
+        <c:axId val="137537024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63590784"/>
+        <c:crossAx val="137906432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63590784"/>
+        <c:axId val="137906432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -722,11 +816,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63580800"/>
+        <c:crossAx val="137537024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -757,6 +853,7 @@
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -769,6 +866,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -780,8 +879,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="34"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -804,12 +912,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -824,6 +936,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sorting!$A$2</c:f>
@@ -862,6 +975,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sorting!$A$2</c:f>
@@ -886,31 +1000,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="63657856"/>
-        <c:axId val="63659392"/>
+        <c:axId val="137539072"/>
+        <c:axId val="137908736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63657856"/>
+        <c:axId val="137539072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63659392"/>
+        <c:crossAx val="137908736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63659392"/>
+        <c:axId val="137908736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -929,11 +1055,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63657856"/>
+        <c:crossAx val="137539072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -951,6 +1080,7 @@
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -963,6 +1093,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -974,8 +1106,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="34"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1006,12 +1147,15 @@
           <c:y val="2.5022341376228784E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1026,6 +1170,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Mutable!$A$2</c:f>
@@ -1064,6 +1209,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Mutable!$A$2</c:f>
@@ -1088,31 +1234,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="63701376"/>
-        <c:axId val="63702912"/>
+        <c:axId val="110438400"/>
+        <c:axId val="137911040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63701376"/>
+        <c:axId val="110438400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63702912"/>
+        <c:crossAx val="137911040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63702912"/>
+        <c:axId val="137911040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1132,11 +1290,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63701376"/>
+        <c:crossAx val="110438400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1154,6 +1314,7 @@
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1166,6 +1327,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1177,8 +1340,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="34"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1209,12 +1381,15 @@
           <c:y val="2.5022341376228791E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1229,6 +1404,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Base64!$A$2:$A$4</c:f>
@@ -1279,6 +1455,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Base64!$A$2:$A$4</c:f>
@@ -1329,6 +1506,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Base64!$A$2:$A$4</c:f>
@@ -1371,6 +1549,7 @@
           <c:tx>
             <c:v>Jodd</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Base64!$A$2:$A$4</c:f>
@@ -1407,31 +1586,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="91390336"/>
-        <c:axId val="91391872"/>
+        <c:axId val="138422272"/>
+        <c:axId val="138200192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91390336"/>
+        <c:axId val="138422272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91391872"/>
+        <c:crossAx val="138200192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91391872"/>
+        <c:axId val="138200192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1451,11 +1642,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91390336"/>
+        <c:crossAx val="138422272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1473,6 +1666,7 @@
           <c:h val="0.29316952002983537"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1485,6 +1679,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1779,6 +1975,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1813,6 +2010,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1988,19 +2186,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2008,40 +2206,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5734</v>
+        <v>7361</v>
       </c>
       <c r="C2">
-        <v>4672</v>
+        <v>2585</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
         <f>C2/B2 * 100</f>
-        <v>81.478897802581102</v>
+        <v>35.117511207716348</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15875</v>
+        <v>20883</v>
       </c>
       <c r="C3">
-        <v>13203</v>
+        <v>7698</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
         <f>C3/B3 * 100</f>
-        <v>83.16850393700787</v>
+        <v>36.862519752909066</v>
       </c>
     </row>
   </sheetData>
@@ -2051,20 +2249,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2097,16 +2295,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2330,7 @@
         <v>63.240049057865988</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2157,20 +2355,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2209,16 +2407,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2251,16 +2449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2504,7 @@
         <v>1.7477017721695971</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2338,7 +2536,7 @@
         <v>6.7349854658323896</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/etc/performance/Benchmarks.xlsx
+++ b/etc/performance/Benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24120" windowHeight="12360"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24120" windowHeight="12360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BeanUtil" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>test #2</t>
-  </si>
-  <si>
-    <t>commons</t>
   </si>
   <si>
     <t>jodd</t>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Jodd</t>
+  </si>
+  <si>
+    <t>commons 1.8</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>commons</c:v>
+                  <c:v>commons 1.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -225,6 +225,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -266,11 +273,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="137535488"/>
-        <c:axId val="95737472"/>
+        <c:axId val="134918144"/>
+        <c:axId val="97179264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137535488"/>
+        <c:axId val="134918144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,7 +286,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95737472"/>
+        <c:crossAx val="97179264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -287,7 +294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95737472"/>
+        <c:axId val="97179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -318,7 +325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137535488"/>
+        <c:crossAx val="134918144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -343,9 +350,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79650338228269368"/>
+          <c:x val="0.75214591326769098"/>
           <c:y val="0.15320456256640858"/>
-          <c:w val="0.17479472600171553"/>
+          <c:w val="0.21915219501671879"/>
           <c:h val="0.14658476001491769"/>
         </c:manualLayout>
       </c:layout>
@@ -467,6 +474,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -486,7 +500,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26.76306880128536</c:v>
+                  <c:v>24.44342367171949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,11 +516,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="110436864"/>
-        <c:axId val="137904128"/>
+        <c:axId val="108798464"/>
+        <c:axId val="135282688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110436864"/>
+        <c:axId val="108798464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +529,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137904128"/>
+        <c:crossAx val="135282688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -523,7 +537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137904128"/>
+        <c:axId val="135282688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -558,7 +572,7 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="110436864"/>
+        <c:crossAx val="108798464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -729,6 +743,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -751,10 +772,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>63.240049057865988</c:v>
+                  <c:v>57.187845774108439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.429610622555494</c:v>
+                  <c:v>46.583028955587316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,11 +791,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="137537024"/>
-        <c:axId val="137906432"/>
+        <c:axId val="134919680"/>
+        <c:axId val="135284992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137537024"/>
+        <c:axId val="134919680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +804,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137906432"/>
+        <c:crossAx val="135284992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -791,7 +812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137906432"/>
+        <c:axId val="135284992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -822,7 +843,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137537024"/>
+        <c:crossAx val="134919680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -975,6 +996,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -994,7 +1022,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>52.438384897745152</c:v>
+                  <c:v>57.152801949182042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,11 +1038,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="137539072"/>
-        <c:axId val="137908736"/>
+        <c:axId val="134921728"/>
+        <c:axId val="135287296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137539072"/>
+        <c:axId val="134921728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1051,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137908736"/>
+        <c:crossAx val="135287296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137908736"/>
+        <c:axId val="135287296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1062,7 +1090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137539072"/>
+        <c:crossAx val="134921728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1209,6 +1237,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1228,7 +1263,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.244798687217955</c:v>
+                  <c:v>19.294342021614749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,11 +1279,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="110438400"/>
-        <c:axId val="137911040"/>
+        <c:axId val="108800000"/>
+        <c:axId val="135289600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110438400"/>
+        <c:axId val="108800000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137911040"/>
+        <c:crossAx val="135289600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1265,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137911040"/>
+        <c:axId val="135289600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1296,7 +1331,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110438400"/>
+        <c:crossAx val="108800000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1455,6 +1490,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1480,13 +1529,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1550910552623304</c:v>
+                  <c:v>6.6552284630666421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.130906045228361</c:v>
+                  <c:v>16.914016489988221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.715891670924883</c:v>
+                  <c:v>20.456964450436388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,13 +1580,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.087420042643924</c:v>
+                  <c:v>9.2920353982300892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.637532640291671</c:v>
+                  <c:v>21.241797072185765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.318344404701072</c:v>
+                  <c:v>27.825870999787128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,6 +1598,13 @@
           <c:tx>
             <c:v>Jodd</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1574,13 +1630,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.7477017721695971</c:v>
+                  <c:v>1.4719162001083619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7349854658323896</c:v>
+                  <c:v>6.1854282348981995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.656617271333674</c:v>
+                  <c:v>10.029802029376286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,11 +1652,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="138422272"/>
-        <c:axId val="138200192"/>
+        <c:axId val="135940096"/>
+        <c:axId val="136168576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138422272"/>
+        <c:axId val="135940096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138200192"/>
+        <c:crossAx val="136168576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138200192"/>
+        <c:axId val="136168576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1648,7 +1704,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138422272"/>
+        <c:crossAx val="135940096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -2189,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,10 +2256,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2253,7 +2309,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,28 +2320,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>52281</v>
+        <v>32655</v>
       </c>
       <c r="C2">
-        <v>13992</v>
+        <v>7982</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
         <f>C2/B2 * 100</f>
-        <v>26.76306880128536</v>
+        <v>24.44342367171949</v>
       </c>
     </row>
   </sheetData>
@@ -2299,17 +2355,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2317,17 +2373,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17938</v>
+        <v>23498</v>
       </c>
       <c r="C2">
-        <v>11344</v>
+        <v>13438</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
         <f>C2/B2 * 100</f>
-        <v>63.240049057865988</v>
+        <v>57.187845774108439</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2335,17 +2391,17 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40141</v>
+        <v>18891</v>
       </c>
       <c r="C3">
-        <v>22250</v>
+        <v>8800</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
         <f>C3/B3 * 100</f>
-        <v>55.429610622555494</v>
+        <v>46.583028955587316</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2415,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,13 +2426,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,20 +2440,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1907</v>
+        <v>2873</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1642</v>
       </c>
       <c r="D2">
-        <v>6579</v>
+        <v>8482</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
         <f>C2/B2 * 100</f>
-        <v>52.438384897745152</v>
+        <v>57.152801949182042</v>
       </c>
     </row>
   </sheetData>
@@ -2411,17 +2467,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,17 +2485,17 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17063</v>
+        <v>12584</v>
       </c>
       <c r="C2">
-        <v>3625</v>
+        <v>2428</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
         <f>C2/B2 * 100</f>
-        <v>21.244798687217955</v>
+        <v>19.294342021614749</v>
       </c>
     </row>
   </sheetData>
@@ -2452,24 +2508,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,31 +2533,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28609</v>
+        <v>22148</v>
       </c>
       <c r="C2">
-        <v>2047</v>
+        <v>1474</v>
       </c>
       <c r="D2">
-        <v>3172</v>
+        <v>2058</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>326</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
         <f>C2/B2 * 100</f>
-        <v>7.1550910552623304</v>
+        <v>6.6552284630666421</v>
       </c>
       <c r="H2">
         <f>D2/B2 * 100</f>
-        <v>11.087420042643924</v>
+        <v>9.2920353982300892</v>
       </c>
       <c r="I2">
         <f>E2/B2 * 100</f>
-        <v>1.7477017721695971</v>
+        <v>1.4719162001083619</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,63 +2565,63 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40594</v>
+        <v>29715</v>
       </c>
       <c r="C3">
-        <v>7766</v>
+        <v>5026</v>
       </c>
       <c r="D3">
-        <v>12437</v>
+        <v>6312</v>
       </c>
       <c r="E3">
-        <v>2734</v>
+        <v>1838</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="0">C3/B3 * 100</f>
-        <v>19.130906045228361</v>
+        <v>16.914016489988221</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" si="1">D3/B3 * 100</f>
-        <v>30.637532640291671</v>
+        <v>21.241797072185765</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="2">E3/B3 * 100</f>
-        <v>6.7349854658323896</v>
+        <v>6.1854282348981995</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>39140</v>
+        <v>28186</v>
       </c>
       <c r="C4">
-        <v>8891</v>
+        <v>5766</v>
       </c>
       <c r="D4">
-        <v>16172</v>
+        <v>7843</v>
       </c>
       <c r="E4">
-        <v>4171</v>
+        <v>2827</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>22.715891670924883</v>
+        <v>20.456964450436388</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>41.318344404701072</v>
+        <v>27.825870999787128</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>10.656617271333674</v>
+        <v>10.029802029376286</v>
       </c>
     </row>
   </sheetData>

--- a/etc/performance/Benchmarks.xlsx
+++ b/etc/performance/Benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24120" windowHeight="12360" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24120" windowHeight="12360" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BeanUtil" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sorting" sheetId="4" r:id="rId4"/>
     <sheet name="Mutable" sheetId="5" r:id="rId5"/>
     <sheet name="Base64" sheetId="6" r:id="rId6"/>
+    <sheet name="StringBand" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>test #1</t>
   </si>
@@ -68,6 +69,28 @@
   <si>
     <t>commons 1.8</t>
   </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>10^4</t>
+  </si>
+  <si>
+    <t>10^2</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>10^5</t>
+  </si>
+  <si>
+    <t>StringBand</t>
+  </si>
+  <si>
+    <t>StringBand
+(w prediction)</t>
+  </si>
 </sst>
 </file>
 
@@ -102,10 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,11 +299,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="134918144"/>
-        <c:axId val="97179264"/>
+        <c:axId val="57261568"/>
+        <c:axId val="104254272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134918144"/>
+        <c:axId val="57261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,7 +312,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97179264"/>
+        <c:crossAx val="104254272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -294,7 +320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97179264"/>
+        <c:axId val="104254272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -325,7 +351,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134918144"/>
+        <c:crossAx val="57261568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -516,11 +542,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="108798464"/>
-        <c:axId val="135282688"/>
+        <c:axId val="59561984"/>
+        <c:axId val="104256576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108798464"/>
+        <c:axId val="59561984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135282688"/>
+        <c:crossAx val="104256576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135282688"/>
+        <c:axId val="104256576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -572,7 +598,7 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="108798464"/>
+        <c:crossAx val="59561984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -791,11 +817,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="134919680"/>
-        <c:axId val="135284992"/>
+        <c:axId val="59518976"/>
+        <c:axId val="104258880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134919680"/>
+        <c:axId val="59518976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +830,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135284992"/>
+        <c:crossAx val="104258880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135284992"/>
+        <c:axId val="104258880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -843,7 +869,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134919680"/>
+        <c:crossAx val="59518976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1038,11 +1064,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="134921728"/>
-        <c:axId val="135287296"/>
+        <c:axId val="59521024"/>
+        <c:axId val="39798464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134921728"/>
+        <c:axId val="59521024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1077,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135287296"/>
+        <c:crossAx val="39798464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135287296"/>
+        <c:axId val="39798464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1090,7 +1116,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134921728"/>
+        <c:crossAx val="59521024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1279,11 +1305,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="108800000"/>
-        <c:axId val="135289600"/>
+        <c:axId val="39584256"/>
+        <c:axId val="39800768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108800000"/>
+        <c:axId val="39584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1318,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135289600"/>
+        <c:crossAx val="39800768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135289600"/>
+        <c:axId val="39800768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1331,7 +1357,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108800000"/>
+        <c:crossAx val="39584256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1652,11 +1678,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="135940096"/>
-        <c:axId val="136168576"/>
+        <c:axId val="39585792"/>
+        <c:axId val="39803072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135940096"/>
+        <c:axId val="39585792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136168576"/>
+        <c:crossAx val="39803072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1673,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136168576"/>
+        <c:axId val="39803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1704,7 +1730,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135940096"/>
+        <c:crossAx val="39585792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1741,6 +1767,355 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sr-Latn-CS" baseline="0">
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>StringBand performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>StringBand!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>StringBand!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10^2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>StringBand!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>StringBand!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StringBand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>StringBand!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10^2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>StringBand!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.705882352941174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.672354948805463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.761201032136995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>StringBand!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StringBand
+(w prediction)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>StringBand!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.351535836177476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.685198217217931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="109992448"/>
+        <c:axId val="108865792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109992448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108865792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108865792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sr-Latn-CS" sz="1100" baseline="0"/>
+                  <a:t>Time [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109992448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75214591326769098"/>
+          <c:y val="0.15320456256640858"/>
+          <c:w val="0.2334382174830886"/>
+          <c:h val="0.37541111650587911"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" baseline="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1940,6 +2315,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2246,7 +2658,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2712,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2508,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,4 +3041,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <f>C2/B2 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>D2/B2 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">C3/B3 * 100</f>
+        <v>84.705882352941174</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="1">D3/B3 * 100</f>
+        <v>83.529411764705884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1465</v>
+      </c>
+      <c r="C4">
+        <v>1050</v>
+      </c>
+      <c r="D4">
+        <v>723</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>71.672354948805463</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>49.351535836177476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>17052</v>
+      </c>
+      <c r="C5">
+        <v>14624</v>
+      </c>
+      <c r="D5">
+        <v>14270</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>85.761201032136995</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>83.685198217217931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>